--- a/files/In-class Exercise 1.xlsx
+++ b/files/In-class Exercise 1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhanksun\Dropbox\Teaching\MS3106\In-class Exercise 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhanksun\Documents\GitHub\zhanksun.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE052D2-8BFB-4A76-B091-49369B7BAE3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA9EF3A-AA71-46BE-A7D2-D3079653045B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3672" yWindow="2016" windowWidth="18780" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newsvendor simulation exercise" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Input Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Order quantity</t>
+  </si>
+  <si>
+    <t>Conclution: The optimal order quantity is ___</t>
   </si>
 </sst>
 </file>
@@ -314,39 +317,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,6 +327,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB0C59-6844-4FD6-887F-6C588817A2F6}">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -756,107 +759,110 @@
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.399999999999999">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:19" ht="17.399999999999999">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="6">
         <v>7.5</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="6">
         <v>2.5</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="M4" s="24" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="21" t="s">
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
       <c r="E5" s="4">
         <v>1</v>
       </c>
@@ -866,14 +872,14 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -886,17 +892,17 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -909,18 +915,18 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="E8" s="4">
         <v>4</v>
       </c>
@@ -930,20 +936,20 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4">
@@ -955,16 +961,16 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:19">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="E10" s="4">
         <v>6</v>
       </c>
@@ -974,13 +980,13 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -993,13 +999,13 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1012,13 +1018,13 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1031,13 +1037,13 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1050,13 +1056,13 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1069,13 +1075,13 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1088,8 +1094,8 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -1107,8 +1113,8 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1126,8 +1132,8 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -1144,8 +1150,8 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -2047,6 +2053,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A5:B5"/>
@@ -2055,18 +2072,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
     <mergeCell ref="M4:O5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
